--- a/Course work/CourseWork/Время на УПД.xlsx
+++ b/Course work/CourseWork/Время на УПД.xlsx
@@ -344,1090 +344,1090 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>34.5906999114239</v>
+        <v>0.3929345062218915</v>
       </c>
       <c r="B1" t="n">
-        <v>7.820161622984404</v>
+        <v>0.11687057274219204</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42.66718714861073</v>
+        <v>0.5464849011324401</v>
       </c>
       <c r="B2" t="n">
-        <v>7.820161622984401</v>
+        <v>0.14823983058877316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50.48734877159513</v>
+        <v>0.8243230159152021</v>
       </c>
       <c r="B3" t="n">
-        <v>14.793297720342473</v>
+        <v>0.13866309028978063</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70.28475096267654</v>
+        <v>1.0354387070487507</v>
       </c>
       <c r="B4" t="n">
-        <v>7.820161622984401</v>
+        <v>0.11683417253308181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97.05528925111602</v>
+        <v>2.6596011728885576</v>
       </c>
       <c r="B5" t="n">
-        <v>7.820161622984401</v>
+        <v>0.24689883949210945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>186.29041687924772</v>
+        <v>3.226267839555224</v>
       </c>
       <c r="B6" t="n">
-        <v>7.820161622984415</v>
+        <v>0.24420929350833864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>263.9235127628132</v>
+        <v>3.509601172888557</v>
       </c>
       <c r="B7" t="n">
-        <v>8.076487237186853</v>
+        <v>0.4345981387099038</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>280.9235127628132</v>
+        <v>3.7929345062218904</v>
       </c>
       <c r="B8" t="n">
-        <v>25.076487237186853</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>297.9235127628132</v>
+        <v>4.076267839555224</v>
       </c>
       <c r="B9" t="n">
-        <v>8.076487237186825</v>
+        <v>0.5275426268416723</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>323.84702552562635</v>
+        <v>5.084141494710644</v>
       </c>
       <c r="B10" t="n">
-        <v>8.923512762813175</v>
+        <v>0.11874961533042594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>340.84702552562635</v>
+        <v>5.248725212713551</v>
       </c>
       <c r="B11" t="n">
-        <v>25.923512762813175</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>357.84702552562635</v>
+        <v>5.532058546046884</v>
       </c>
       <c r="B12" t="n">
-        <v>8.923512762813175</v>
+        <v>0.4144794686948936</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>374.84702552562635</v>
+        <v>6.098725212713551</v>
       </c>
       <c r="B13" t="n">
-        <v>25.923512762813175</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>391.84702552562635</v>
+        <v>6.382058546046884</v>
       </c>
       <c r="B14" t="n">
-        <v>25.923512762813175</v>
+        <v>0.5365843698815222</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>408.84702552562635</v>
+        <v>6.94872521271355</v>
       </c>
       <c r="B15" t="n">
-        <v>34.0</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>425.84702552562635</v>
+        <v>7.232058546046884</v>
       </c>
       <c r="B16" t="n">
-        <v>8.923512762813175</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>459.84702552562635</v>
+        <v>7.515391879380217</v>
       </c>
       <c r="B17" t="n">
-        <v>8.923512762813175</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>476.84702552562635</v>
+        <v>7.79872521271355</v>
       </c>
       <c r="B18" t="n">
-        <v>8.923512762813175</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>493.84702552562635</v>
+        <v>8.082058546046884</v>
       </c>
       <c r="B19" t="n">
-        <v>25.923512762813175</v>
+        <v>0.5666666666666673</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>510.84702552562635</v>
+        <v>8.365391879380217</v>
       </c>
       <c r="B20" t="n">
-        <v>25.923512762813175</v>
+        <v>0.5666666666666673</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>527.8470255256263</v>
+        <v>8.64872521271355</v>
       </c>
       <c r="B21" t="n">
-        <v>25.923512762813175</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>586.9235127628132</v>
+        <v>9.215391879380217</v>
       </c>
       <c r="B22" t="n">
-        <v>8.076487237186825</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>603.9235127628132</v>
+        <v>9.49872521271355</v>
       </c>
       <c r="B23" t="n">
-        <v>25.076487237186825</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>620.9235127628132</v>
+        <v>10.065391879380217</v>
       </c>
       <c r="B24" t="n">
-        <v>34.0</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>637.9235127628132</v>
+        <v>10.34872521271355</v>
       </c>
       <c r="B25" t="n">
-        <v>25.076487237186825</v>
+        <v>0.5116652876940808</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>654.9235127628132</v>
+        <v>10.632058546046883</v>
       </c>
       <c r="B26" t="n">
-        <v>25.076487237186825</v>
+        <v>0.5635655443701939</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>663.8470255256263</v>
+        <v>10.915391879380216</v>
       </c>
       <c r="B27" t="n">
-        <v>17.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>680.8470255256263</v>
+        <v>11.03901793332847</v>
       </c>
       <c r="B28" t="n">
-        <v>25.923512762813175</v>
+        <v>0.40695938728158687</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>697.8470255256263</v>
+        <v>11.19872521271355</v>
       </c>
       <c r="B29" t="n">
-        <v>34.0</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>739.9235127628132</v>
+        <v>11.482058546046883</v>
       </c>
       <c r="B30" t="n">
-        <v>8.076487237186825</v>
+        <v>0.4430406127184128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>756.9235127628132</v>
+        <v>11.765391879380216</v>
       </c>
       <c r="B31" t="n">
-        <v>25.076487237186825</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>773.9235127628132</v>
+        <v>12.04872521271355</v>
       </c>
       <c r="B32" t="n">
-        <v>25.076487237186825</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>799.8470255256263</v>
+        <v>12.615391879380216</v>
       </c>
       <c r="B33" t="n">
-        <v>8.923512762813175</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>816.8470255256263</v>
+        <v>12.898725212713549</v>
       </c>
       <c r="B34" t="n">
-        <v>25.923512762813175</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>833.8470255256263</v>
+        <v>14.032058546046882</v>
       </c>
       <c r="B35" t="n">
-        <v>34.0</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>850.8470255256263</v>
+        <v>14.882058546046881</v>
       </c>
       <c r="B36" t="n">
-        <v>34.0</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>867.8470255256263</v>
+        <v>15.165391879380214</v>
       </c>
       <c r="B37" t="n">
-        <v>8.923512762813175</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>884.8470255256263</v>
+        <v>15.866095007550879</v>
       </c>
       <c r="B38" t="n">
-        <v>25.923512762813175</v>
+        <v>0.13403646150399773</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>909.9235127628132</v>
+        <v>16.015391879380214</v>
       </c>
       <c r="B39" t="n">
-        <v>8.076487237186825</v>
+        <v>0.2833333333333332</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>943.9235127628132</v>
+        <v>16.29872521271355</v>
       </c>
       <c r="B40" t="n">
-        <v>8.076487237186825</v>
+        <v>0.4326302051626705</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>977.9235127628132</v>
+        <v>16.436358041555337</v>
       </c>
       <c r="B41" t="n">
-        <v>8.076487237186825</v>
+        <v>0.42096616217512306</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>994.9235127628132</v>
+        <v>16.86539187938022</v>
       </c>
       <c r="B42" t="n">
-        <v>25.076487237186825</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1011.9235127628132</v>
+        <v>17.011273809830318</v>
       </c>
       <c r="B43" t="n">
-        <v>8.076487237186825</v>
+        <v>0.5749157682749804</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1079.923512762813</v>
+        <v>17.148725212713554</v>
       </c>
       <c r="B44" t="n">
-        <v>8.076487237186711</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1096.923512762813</v>
+        <v>17.43205854604689</v>
       </c>
       <c r="B45" t="n">
-        <v>8.076487237186711</v>
+        <v>0.42078473621657153</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1122.8470255256263</v>
+        <v>17.715391879380224</v>
       </c>
       <c r="B46" t="n">
-        <v>8.923512762813289</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1139.8470255256263</v>
+        <v>17.99872521271356</v>
       </c>
       <c r="B47" t="n">
-        <v>8.923512762813289</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1156.8470255256263</v>
+        <v>18.56539187938023</v>
       </c>
       <c r="B48" t="n">
-        <v>8.923512762813289</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1173.8470255256263</v>
+        <v>18.848725212713564</v>
       </c>
       <c r="B49" t="n">
-        <v>25.92351276281329</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1224.8470255256263</v>
+        <v>19.1320585460469</v>
       </c>
       <c r="B50" t="n">
-        <v>8.923512762813289</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1283.923512762813</v>
+        <v>19.415391879380234</v>
       </c>
       <c r="B51" t="n">
-        <v>8.076487237186711</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1300.923512762813</v>
+        <v>19.543174471228394</v>
       </c>
       <c r="B52" t="n">
-        <v>25.07648723718671</v>
+        <v>0.41111592518149465</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1334.923512762813</v>
+        <v>19.69872521271357</v>
       </c>
       <c r="B53" t="n">
-        <v>8.076487237186711</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1351.923512762813</v>
+        <v>19.982058546046904</v>
       </c>
       <c r="B54" t="n">
-        <v>25.07648723718671</v>
+        <v>0.43888407481851033</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1368.923512762813</v>
+        <v>20.548725212713574</v>
       </c>
       <c r="B55" t="n">
-        <v>34.0</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1436.923512762813</v>
+        <v>20.6673165437898</v>
       </c>
       <c r="B56" t="n">
-        <v>17.0</v>
+        <v>0.40192466440955954</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1470.923512762813</v>
+        <v>20.83205854604691</v>
       </c>
       <c r="B57" t="n">
-        <v>17.0</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1487.923512762813</v>
+        <v>20.954193943307086</v>
       </c>
       <c r="B58" t="n">
-        <v>17.0</v>
+        <v>0.2868773995172873</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1512.7436743857975</v>
+        <v>21.115391879380244</v>
       </c>
       <c r="B59" t="n">
-        <v>7.820161622984415</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1521.923512762813</v>
+        <v>21.39872521271358</v>
       </c>
       <c r="B60" t="n">
-        <v>17.0</v>
+        <v>0.4445312694064931</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1538.923512762813</v>
+        <v>21.682058546046914</v>
       </c>
       <c r="B61" t="n">
-        <v>26.179838377015585</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1555.923512762813</v>
+        <v>21.96539187938025</v>
       </c>
       <c r="B62" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1572.923512762813</v>
+        <v>22.815391879380254</v>
       </c>
       <c r="B63" t="n">
-        <v>34.0</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1589.923512762813</v>
+        <v>23.09872521271359</v>
       </c>
       <c r="B64" t="n">
-        <v>17.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1606.923512762813</v>
+        <v>24.515391879380264</v>
       </c>
       <c r="B65" t="n">
-        <v>17.0</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1623.923512762813</v>
+        <v>25.36539187938027</v>
       </c>
       <c r="B66" t="n">
-        <v>34.0</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1640.923512762813</v>
+        <v>27.06539187938028</v>
       </c>
       <c r="B67" t="n">
-        <v>34.0</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1674.923512762813</v>
+        <v>27.348725212713614</v>
       </c>
       <c r="B68" t="n">
-        <v>17.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1708.923512762813</v>
+        <v>27.63205854604695</v>
       </c>
       <c r="B69" t="n">
-        <v>17.0</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1776.923512762813</v>
+        <v>27.915391879380284</v>
       </c>
       <c r="B70" t="n">
-        <v>17.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1793.923512762813</v>
+        <v>28.19872521271362</v>
       </c>
       <c r="B71" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1810.923512762813</v>
+        <v>28.482058546046954</v>
       </c>
       <c r="B72" t="n">
-        <v>17.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1861.923512762813</v>
+        <v>28.76539187938029</v>
       </c>
       <c r="B73" t="n">
-        <v>17.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1878.923512762813</v>
+        <v>29.33205854604696</v>
       </c>
       <c r="B74" t="n">
-        <v>34.0</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1895.923512762813</v>
+        <v>29.615391879380294</v>
       </c>
       <c r="B75" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1963.923512762813</v>
+        <v>29.89872521271363</v>
       </c>
       <c r="B76" t="n">
-        <v>17.0</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1980.923512762813</v>
+        <v>30.182058546046964</v>
       </c>
       <c r="B77" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1988.7436743857975</v>
+        <v>30.4653918793803</v>
       </c>
       <c r="B78" t="n">
-        <v>24.820161622984415</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1997.923512762813</v>
+        <v>31.03205854604697</v>
       </c>
       <c r="B79" t="n">
-        <v>17.0</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2014.923512762813</v>
+        <v>31.59872521271364</v>
       </c>
       <c r="B80" t="n">
-        <v>26.179838377015585</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2048.923512762813</v>
+        <v>31.882058546046974</v>
       </c>
       <c r="B81" t="n">
-        <v>17.0</v>
+        <v>0.283333333333335</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2082.923512762813</v>
+        <v>32.16539187938031</v>
       </c>
       <c r="B82" t="n">
-        <v>17.0</v>
+        <v>0.55788530251289</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2090.7436743857975</v>
+        <v>32.44872521271364</v>
       </c>
       <c r="B83" t="n">
-        <v>24.820161622984415</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2099.923512762813</v>
+        <v>32.73205854604697</v>
       </c>
       <c r="B84" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2116.923512762813</v>
+        <v>33.0153918793803</v>
       </c>
       <c r="B85" t="n">
-        <v>26.179838377015585</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2150.923512762813</v>
+        <v>33.298725212713634</v>
       </c>
       <c r="B86" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2184.923512762813</v>
+        <v>34.14872521271363</v>
       </c>
       <c r="B87" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2209.7436743857975</v>
+        <v>34.27721266588378</v>
       </c>
       <c r="B88" t="n">
-        <v>7.820161622984415</v>
+        <v>0.2925435645198604</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2218.923512762813</v>
+        <v>34.43205854604696</v>
       </c>
       <c r="B89" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2235.923512762813</v>
+        <v>34.577431743874186</v>
       </c>
       <c r="B90" t="n">
-        <v>26.179838377015585</v>
+        <v>0.3002190779904055</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2286.923512762813</v>
+        <v>34.71539187938029</v>
       </c>
       <c r="B91" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2320.923512762813</v>
+        <v>34.99872521271362</v>
       </c>
       <c r="B92" t="n">
-        <v>17.0</v>
+        <v>0.42129346883943697</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2337.923512762813</v>
+        <v>35.282058546046954</v>
       </c>
       <c r="B93" t="n">
-        <v>34.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2354.923512762813</v>
+        <v>35.84872521271362</v>
       </c>
       <c r="B94" t="n">
-        <v>34.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2371.923512762813</v>
+        <v>36.25680967161746</v>
       </c>
       <c r="B95" t="n">
-        <v>34.0</v>
+        <v>0.12475112557051204</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2456.923512762813</v>
+        <v>36.41539187938028</v>
       </c>
       <c r="B96" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2473.923512762813</v>
+        <v>36.69872521271361</v>
       </c>
       <c r="B97" t="n">
-        <v>34.0</v>
+        <v>0.44191554109615083</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2490.923512762813</v>
+        <v>36.98205854604694</v>
       </c>
       <c r="B98" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2507.923512762813</v>
+        <v>37.265391879380275</v>
       </c>
       <c r="B99" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2541.923512762813</v>
+        <v>37.83205854604694</v>
       </c>
       <c r="B100" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2575.923512762813</v>
+        <v>38.11539187938027</v>
       </c>
       <c r="B101" t="n">
-        <v>17.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2592.923512762813</v>
+        <v>38.68205854604693</v>
       </c>
       <c r="B102" t="n">
-        <v>34.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2609.923512762813</v>
+        <v>38.96539187938026</v>
       </c>
       <c r="B103" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2626.923512762813</v>
+        <v>39.532058546046926</v>
       </c>
       <c r="B104" t="n">
-        <v>34.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2660.923512762813</v>
+        <v>46.576267839555214</v>
       </c>
       <c r="B105" t="n">
-        <v>17.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2677.923512762813</v>
+        <v>47.42626783955521</v>
       </c>
       <c r="B106" t="n">
-        <v>34.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2694.923512762813</v>
+        <v>47.70960117288854</v>
       </c>
       <c r="B107" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2711.923512762813</v>
+        <v>47.99293450622187</v>
       </c>
       <c r="B108" t="n">
-        <v>17.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2728.923512762813</v>
+        <v>48.2762678395552</v>
       </c>
       <c r="B109" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2762.923512762813</v>
+        <v>48.559601172888534</v>
       </c>
       <c r="B110" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2779.923512762813</v>
+        <v>49.40960117288853</v>
       </c>
       <c r="B111" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2796.923512762813</v>
+        <v>49.69293450622186</v>
       </c>
       <c r="B112" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2813.923512762813</v>
+        <v>49.97626783955519</v>
       </c>
       <c r="B113" t="n">
-        <v>34.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2864.923512762813</v>
+        <v>50.542934506221854</v>
       </c>
       <c r="B114" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2872.7436743857975</v>
+        <v>51.10960117288852</v>
       </c>
       <c r="B115" t="n">
-        <v>24.820161622984415</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2881.923512762813</v>
+        <v>51.39293450622185</v>
       </c>
       <c r="B116" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2898.923512762813</v>
+        <v>51.67626783955518</v>
       </c>
       <c r="B117" t="n">
-        <v>26.179838377015585</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2915.923512762813</v>
+        <v>51.95960117288851</v>
       </c>
       <c r="B118" t="n">
-        <v>17.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2932.923512762813</v>
+        <v>52.36441637532858</v>
       </c>
       <c r="B119" t="n">
-        <v>34.0</v>
+        <v>0.12148186910673786</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2949.923512762813</v>
+        <v>52.526267839555175</v>
       </c>
       <c r="B120" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2966.923512762813</v>
+        <v>52.66451792163413</v>
       </c>
       <c r="B121" t="n">
-        <v>34.0</v>
+        <v>0.3001015463055481</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2983.923512762813</v>
+        <v>52.809601172888506</v>
       </c>
       <c r="B122" t="n">
-        <v>34.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2991.7436743857975</v>
+        <v>52.952211405767486</v>
       </c>
       <c r="B123" t="n">
-        <v>24.820161622984415</v>
+        <v>0.2876934841333565</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3000.923512762813</v>
+        <v>53.09293450622184</v>
       </c>
       <c r="B124" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3017.923512762813</v>
+        <v>53.37626783955517</v>
       </c>
       <c r="B125" t="n">
-        <v>26.179838377015585</v>
+        <v>0.4240564337876833</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3034.923512762813</v>
+        <v>53.6596011728885</v>
       </c>
       <c r="B126" t="n">
-        <v>34.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3051.923512762813</v>
+        <v>54.22626783955516</v>
       </c>
       <c r="B127" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3059.7436743857975</v>
+        <v>54.509601172888495</v>
       </c>
       <c r="B128" t="n">
-        <v>24.820161622984415</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>3068.923512762813</v>
+        <v>54.792934506221826</v>
       </c>
       <c r="B129" t="n">
-        <v>17.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>3085.923512762813</v>
+        <v>55.07626783955516</v>
       </c>
       <c r="B130" t="n">
-        <v>26.179838377015585</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3102.923512762813</v>
+        <v>55.48248941042181</v>
       </c>
       <c r="B131" t="n">
-        <v>17.0</v>
+        <v>0.12288823753332423</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3153.923512762813</v>
+        <v>55.64293450622182</v>
       </c>
       <c r="B132" t="n">
-        <v>17.0</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>3187.923512762813</v>
+        <v>55.78639890385696</v>
       </c>
       <c r="B133" t="n">
-        <v>17.0</v>
+        <v>0.3039094934351496</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3212.7436743857975</v>
+        <v>55.92626783955515</v>
       </c>
       <c r="B134" t="n">
-        <v>7.820161622984415</v>
+        <v>0.28333333333333144</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3221.923512762813</v>
+        <v>56.20960117288848</v>
       </c>
       <c r="B135" t="n">
-        <v>17.0</v>
+        <v>0.4232022690315205</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3238.923512762813</v>
+        <v>56.492934506221815</v>
       </c>
       <c r="B136" t="n">
-        <v>26.179838377015585</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="137">
